--- a/ref/ReferenceList.xlsx
+++ b/ref/ReferenceList.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,37 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                       投标文件检查清单</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-招标项目名称：                                    招标编号：                                                      投标方式：                                          投标时间：</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>检查项</t>
-  </si>
-  <si>
-    <t>检查时间</t>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>检测项目</t>
+  </si>
+  <si>
+    <t>要求说明</t>
   </si>
   <si>
     <t>A角检查</t>
@@ -72,7 +53,7 @@
     <t>交叉检查</t>
   </si>
   <si>
-    <t>技术标
+    <t xml:space="preserve">
 常规检查</t>
   </si>
   <si>
@@ -82,7 +63,7 @@
     <t>如使用投标专用章，关于启用投标专用章的情况说明是否附上</t>
   </si>
   <si>
-    <t>PDF稿</t>
+    <t>项目名称及编号</t>
   </si>
   <si>
     <t>项目名称、项目编号等内容是否正确</t>
@@ -142,6 +123,9 @@
     <t>各授权函是否在授权的有效期内</t>
   </si>
   <si>
+    <t>技术常规检查</t>
+  </si>
+  <si>
     <t>技术方案（技术偏离表）</t>
   </si>
   <si>
@@ -151,12 +135,12 @@
     <t>项目名称、项目编号是否正确，表格格式是否和招标文件要求一致</t>
   </si>
   <si>
+    <t>投标产品规格配置清单</t>
+  </si>
+  <si>
     <t>是否有要求实质性响应的项目，以及响应情况检查，是否符合实质性响应的招标要求</t>
   </si>
   <si>
-    <t>投标产品规格配置清单</t>
-  </si>
-  <si>
     <t>投标产品规格配置清单是否具备，填写是否合理，设备数量和表格格式是否和招标文件要求一致</t>
   </si>
   <si>
@@ -172,8 +156,7 @@
     <t>核心设备的产品彩页等参数证明材料是否具备</t>
   </si>
   <si>
-    <t>商务标
-常规检查</t>
+    <t>商务常规检查</t>
   </si>
   <si>
     <t>投标响应函</t>
@@ -200,8 +183,7 @@
     <t>分项报价表清单内容是否和技术标中投标产品规格配置清单一致</t>
   </si>
   <si>
-    <t>技术标
-定制性检查</t>
+    <t>技术定制检查</t>
   </si>
   <si>
     <t>其他项目</t>
@@ -268,6 +250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>在招标文件中搜索</t>
     </r>
     <r>
@@ -322,6 +310,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>在投标文件中分别搜索</t>
     </r>
     <r>
@@ -414,41 +408,6 @@
   <si>
     <t>是否出现同一标的物或招标产品(服务)内的主要产品(重要组成部分)出现技术、商务描述不一致或前后描述不一致的情况</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                     注：请保存为PDF后进行检查。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                                                                                                       检查人签字（A角）：                                       交叉检查签字：         
-                                                                                                                                                       检查人签字（B角）：                                       部门签字：
-                                                                                                                                                                                                                         年             月           日</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -460,7 +419,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,20 +435,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -513,13 +458,6 @@
       <color theme="1"/>
       <name val="仿宋"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -866,74 +804,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -979,34 +855,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1115,19 +967,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,131 +1000,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,81 +1123,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1669,743 +1497,627 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H46"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.2166666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="8" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="7" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="63" customHeight="1" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="33" spans="1:8">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14" t="s">
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="14" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="14" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="17" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A15" s="13">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A16" s="13">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="17" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A17" s="13">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A18" s="13">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="17" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A19" s="13">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A20" s="13">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="14" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A21" s="13">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A22" s="13">
-        <v>18</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A23" s="13">
-        <v>19</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A24" s="13">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A25" s="13">
-        <v>21</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A26" s="13">
-        <v>22</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A27" s="13">
-        <v>23</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A28" s="13">
-        <v>24</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A29" s="13">
-        <v>25</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A30" s="13">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A31" s="13">
-        <v>27</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A32" s="13">
-        <v>28</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A33" s="13">
-        <v>29</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="33" spans="1:8">
-      <c r="A34" s="13">
-        <v>30</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A35" s="13">
-        <v>31</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="33" spans="1:8">
-      <c r="A36" s="13">
-        <v>32</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A37" s="13">
-        <v>33</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A38" s="13">
-        <v>34</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="33" spans="1:8">
-      <c r="A39" s="13">
-        <v>35</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A40" s="13">
-        <v>36</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="14" t="s">
+      <c r="D38" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="33" spans="1:8">
-      <c r="A41" s="13">
-        <v>37</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="115.5" customHeight="1" spans="1:8">
-      <c r="A42" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-    </row>
-    <row r="45" ht="18" customHeight="1" spans="1:8">
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" ht="18" customHeight="1" spans="1:8">
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="41" ht="18" customHeight="1" spans="1:7">
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" ht="18" customHeight="1" spans="1:7">
+      <c r="D42" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="B5:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="A2:H3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait"/>
